--- a/abc4sfa/4_error_measurements/data/output/simulations/exp/efficiency_metrics_abc_tun_exp_2025-04-23.xlsx
+++ b/abc4sfa/4_error_measurements/data/output/simulations/exp/efficiency_metrics_abc_tun_exp_2025-04-23.xlsx
@@ -1,21 +1,104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanrengifo101/Documents/_OneDrive/_Publicaciones/_apolo/auto_apolo/abc4sfa/4_error_measurements/data/output/simulations/exp/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA03E669-2AFE-A543-88F9-67F1F1D70238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+  <si>
+    <t>efficiency_type</t>
+  </si>
+  <si>
+    <t>metric_name</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>s5</t>
+  </si>
+  <si>
+    <t>s6</t>
+  </si>
+  <si>
+    <t>s7</t>
+  </si>
+  <si>
+    <t>s8</t>
+  </si>
+  <si>
+    <t>s9</t>
+  </si>
+  <si>
+    <t>s10</t>
+  </si>
+  <si>
+    <t>s11</t>
+  </si>
+  <si>
+    <t>s12</t>
+  </si>
+  <si>
+    <t>s13</t>
+  </si>
+  <si>
+    <t>s14</t>
+  </si>
+  <si>
+    <t>s15</t>
+  </si>
+  <si>
+    <t>s16</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>relative_bias</t>
+  </si>
+  <si>
+    <t>trans</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>cor</t>
+  </si>
+  <si>
+    <t>rootmse</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +146,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +198,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +232,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +267,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,367 +443,313 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>metric_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>s1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>s3</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>s4</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>s5</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>s6</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>s7</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>s8</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>s9</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>s10</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>s11</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>s12</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>s13</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>s14</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>s15</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>s16</t>
-        </is>
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>perm</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>relative_bias</t>
-        </is>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
       </c>
       <c r="C2">
-        <v>-0.01489633380007378</v>
+        <v>-1.4896333800073779E-2</v>
       </c>
       <c r="D2">
-        <v>-0.06589014162293119</v>
+        <v>-6.5890141622931192E-2</v>
       </c>
       <c r="E2">
-        <v>-0.02917140453300455</v>
+        <v>-2.9171404533004552E-2</v>
       </c>
       <c r="F2">
-        <v>-0.07105829848489466</v>
+        <v>-7.1058298484894658E-2</v>
       </c>
       <c r="G2">
-        <v>-0.0417567255071981</v>
+        <v>-4.1756725507198098E-2</v>
       </c>
       <c r="H2">
-        <v>-0.08590842676132855</v>
+        <v>-8.5908426761328552E-2</v>
       </c>
       <c r="I2">
-        <v>-0.05997624693937066</v>
+        <v>-5.9976246939370662E-2</v>
       </c>
       <c r="J2">
-        <v>-0.0911414001262546</v>
+        <v>-9.1141400126254601E-2</v>
       </c>
       <c r="K2">
-        <v>-0.006304564975704817</v>
+        <v>-6.3045649757048168E-3</v>
       </c>
       <c r="L2">
-        <v>-0.02549544984123429</v>
+        <v>-2.549544984123429E-2</v>
       </c>
       <c r="M2">
-        <v>0.03523898016186822</v>
+        <v>3.5238980161868223E-2</v>
       </c>
       <c r="N2">
-        <v>-0.009467076396462831</v>
+        <v>-9.4670763964628309E-3</v>
       </c>
       <c r="O2">
-        <v>-0.05797463536351507</v>
+        <v>-5.7974635363515069E-2</v>
       </c>
       <c r="P2">
-        <v>-0.0739526195170532</v>
+        <v>-7.3952619517053203E-2</v>
       </c>
       <c r="Q2">
-        <v>-0.02847443218734008</v>
+        <v>-2.8474432187340078E-2</v>
       </c>
       <c r="R2">
-        <v>-0.05241942567377886</v>
+        <v>-5.2419425673778858E-2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>trans</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>relative_bias</t>
-        </is>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>-0.009688040657973926</v>
+        <v>-9.6880406579739255E-3</v>
       </c>
       <c r="D3">
-        <v>0.05153692359852476</v>
+        <v>5.1536923598524763E-2</v>
       </c>
       <c r="E3">
-        <v>-0.02272338439125167</v>
+        <v>-2.2723384391251669E-2</v>
       </c>
       <c r="F3">
-        <v>0.07591878806875825</v>
+        <v>7.591878806875825E-2</v>
       </c>
       <c r="G3">
-        <v>-0.03084850610540667</v>
+        <v>-3.0848506105406671E-2</v>
       </c>
       <c r="H3">
-        <v>0.004175846112968646</v>
+        <v>4.1758461129686461E-3</v>
       </c>
       <c r="I3">
-        <v>-0.1055048214596783</v>
+        <v>-0.10550482145967829</v>
       </c>
       <c r="J3">
-        <v>-0.04625544079977478</v>
+        <v>-4.6255440799774783E-2</v>
       </c>
       <c r="K3">
-        <v>-0.0148332766400302</v>
+        <v>-1.48332766400302E-2</v>
       </c>
       <c r="L3">
-        <v>0.05146810897012732</v>
+        <v>5.1468108970127317E-2</v>
       </c>
       <c r="M3">
-        <v>-0.03077630658074971</v>
+        <v>-3.0776306580749709E-2</v>
       </c>
       <c r="N3">
-        <v>0.07929909730906283</v>
+        <v>7.929909730906283E-2</v>
       </c>
       <c r="O3">
         <v>-0.1096875152439646</v>
       </c>
       <c r="P3">
-        <v>0.02032686553840275</v>
+        <v>2.0326865538402749E-2</v>
       </c>
       <c r="Q3">
         <v>-0.1321091685127897</v>
       </c>
       <c r="R3">
-        <v>0.003366530044578249</v>
+        <v>3.366530044578249E-3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>overall</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>relative_bias</t>
-        </is>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>-0.02444462608417048</v>
+        <v>-2.444462608417048E-2</v>
       </c>
       <c r="D4">
-        <v>-0.01797044491040094</v>
+        <v>-1.7970444910400941E-2</v>
       </c>
       <c r="E4">
-        <v>-0.05117980158873584</v>
+        <v>-5.1179801588735842E-2</v>
       </c>
       <c r="F4">
-        <v>9.010100415894382e-05</v>
+        <v>9.0101004158943816E-5</v>
       </c>
       <c r="G4">
-        <v>-0.07146909948761913</v>
+        <v>-7.1469099487619134E-2</v>
       </c>
       <c r="H4">
-        <v>-0.08221576434786347</v>
+        <v>-8.2215764347863471E-2</v>
       </c>
       <c r="I4">
-        <v>-0.1591923246634167</v>
+        <v>-0.15919232466341671</v>
       </c>
       <c r="J4">
         <v>-0.1333998641325303</v>
       </c>
       <c r="K4">
-        <v>-0.0210912995079391</v>
+        <v>-2.1091299507939101E-2</v>
       </c>
       <c r="L4">
-        <v>0.02296543265021444</v>
+        <v>2.2965432650214439E-2</v>
       </c>
       <c r="M4">
-        <v>0.003390981097220778</v>
+        <v>3.3909810972207778E-3</v>
       </c>
       <c r="N4">
-        <v>0.06823506569460919</v>
+        <v>6.8235065694609187E-2</v>
       </c>
       <c r="O4">
         <v>-0.1614658151182804</v>
       </c>
       <c r="P4">
-        <v>-0.05518232393266156</v>
+        <v>-5.5182323932661557E-2</v>
       </c>
       <c r="Q4">
-        <v>-0.1568143162138403</v>
+        <v>-0.15681431621384029</v>
       </c>
       <c r="R4">
-        <v>-0.04914215631921848</v>
+        <v>-4.9142156319218477E-2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>perm</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>cor</t>
-        </is>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
       </c>
       <c r="C5">
-        <v>0.5354748753397</v>
+        <v>0.53547487533969995</v>
       </c>
       <c r="D5">
-        <v>0.2858379525726725</v>
+        <v>0.28583795257267253</v>
       </c>
       <c r="E5">
-        <v>0.5247599068992281</v>
+        <v>0.52475990689922813</v>
       </c>
       <c r="F5">
-        <v>0.3239298618542226</v>
+        <v>0.32392986185422262</v>
       </c>
       <c r="G5">
-        <v>0.2868317530665379</v>
+        <v>0.28683175306653791</v>
       </c>
       <c r="H5">
-        <v>0.3185706052401898</v>
+        <v>0.31857060524018982</v>
       </c>
       <c r="I5">
-        <v>0.5410317127853996</v>
+        <v>0.54103171278539963</v>
       </c>
       <c r="J5">
-        <v>0.5057485122725107</v>
+        <v>0.50574851227251072</v>
       </c>
       <c r="K5">
-        <v>0.2196239550341519</v>
+        <v>0.21962395503415191</v>
       </c>
       <c r="L5">
-        <v>0.1583712540033199</v>
+        <v>0.15837125400331989</v>
       </c>
       <c r="M5">
         <v>0.1075665565840109</v>
       </c>
       <c r="N5">
-        <v>0.3079636187576454</v>
+        <v>0.30796361875764539</v>
       </c>
       <c r="O5">
         <v>0.1107040397192587</v>
       </c>
       <c r="P5">
-        <v>0.2041993696586575</v>
+        <v>0.20419936965865751</v>
       </c>
       <c r="Q5">
-        <v>0.2372681990671048</v>
+        <v>0.23726819906710481</v>
       </c>
       <c r="R5">
-        <v>0.2978773569055472</v>
+        <v>0.29787735690554717</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>trans</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>cor</t>
-        </is>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>0.9296071320559064</v>
+        <v>0.92960713205590639</v>
       </c>
       <c r="D6">
-        <v>0.602993431062665</v>
+        <v>0.60299343106266501</v>
       </c>
       <c r="E6">
-        <v>0.643032966016056</v>
+        <v>0.64303296601605597</v>
       </c>
       <c r="F6">
-        <v>0.3019829411907676</v>
+        <v>0.30198294119076757</v>
       </c>
       <c r="G6">
         <v>0.2198207972683516</v>
@@ -719,193 +758,181 @@
         <v>0.5380796254736524</v>
       </c>
       <c r="I6">
-        <v>0.4880749498314005</v>
+        <v>0.48807494983140048</v>
       </c>
       <c r="J6">
-        <v>0.8398665669203891</v>
+        <v>0.83986656692038908</v>
       </c>
       <c r="K6">
-        <v>0.6696280616142843</v>
+        <v>0.66962806161428434</v>
       </c>
       <c r="L6">
-        <v>0.4109276338017617</v>
+        <v>0.41092763380176173</v>
       </c>
       <c r="M6">
         <v>0.5070383419854696</v>
       </c>
       <c r="N6">
-        <v>0.2551953987717784</v>
+        <v>0.25519539877177838</v>
       </c>
       <c r="O6">
-        <v>0.437761936012895</v>
+        <v>0.43776193601289498</v>
       </c>
       <c r="P6">
-        <v>0.8848710622241522</v>
+        <v>0.88487106222415224</v>
       </c>
       <c r="Q6">
-        <v>0.5219288543131494</v>
+        <v>0.52192885431314939</v>
       </c>
       <c r="R6">
-        <v>0.9041596535107307</v>
+        <v>0.90415965351073069</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>overall</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>cor</t>
-        </is>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
       </c>
       <c r="C7">
-        <v>0.915223782402433</v>
+        <v>0.91522378240243296</v>
       </c>
       <c r="D7">
-        <v>0.5506369449507992</v>
+        <v>0.55063694495079918</v>
       </c>
       <c r="E7">
-        <v>0.6321745485234198</v>
+        <v>0.63217454852341981</v>
       </c>
       <c r="F7">
-        <v>0.2826454941405159</v>
+        <v>0.28264549414051587</v>
       </c>
       <c r="G7">
         <v>0.2253423381005252</v>
       </c>
       <c r="H7">
-        <v>0.510958546470434</v>
+        <v>0.51095854647043404</v>
       </c>
       <c r="I7">
-        <v>0.4898535857857758</v>
+        <v>0.48985358578577581</v>
       </c>
       <c r="J7">
-        <v>0.8229326377404931</v>
+        <v>0.82293263774049308</v>
       </c>
       <c r="K7">
         <v>0.607198807758912</v>
       </c>
       <c r="L7">
-        <v>0.3837845679488465</v>
+        <v>0.38378456794884652</v>
       </c>
       <c r="M7">
-        <v>0.4329691927578884</v>
+        <v>0.43296919275788842</v>
       </c>
       <c r="N7">
-        <v>0.2432891064979955</v>
+        <v>0.24328910649799551</v>
       </c>
       <c r="O7">
-        <v>0.3617000706353107</v>
+        <v>0.36170007063531068</v>
       </c>
       <c r="P7">
-        <v>0.8491983293191755</v>
+        <v>0.84919832931917549</v>
       </c>
       <c r="Q7">
-        <v>0.3681677715934805</v>
+        <v>0.36816777159348052</v>
       </c>
       <c r="R7">
-        <v>0.8712721226727951</v>
+        <v>0.87127212267279508</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>perm</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>rootmse</t>
-        </is>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>0.01686562126796462</v>
+        <v>1.686562126796462E-2</v>
       </c>
       <c r="D8">
-        <v>0.07364319364661526</v>
+        <v>7.3643193646615257E-2</v>
       </c>
       <c r="E8">
-        <v>0.03430443393037875</v>
+        <v>3.4304433930378748E-2</v>
       </c>
       <c r="F8">
-        <v>0.07996182323796769</v>
+        <v>7.9961823237967689E-2</v>
       </c>
       <c r="G8">
-        <v>0.04953313916205689</v>
+        <v>4.9533139162056893E-2</v>
       </c>
       <c r="H8">
-        <v>0.09549950018386946</v>
+        <v>9.5499500183869462E-2</v>
       </c>
       <c r="I8">
-        <v>0.06497677984411256</v>
+        <v>6.4976779844112556E-2</v>
       </c>
       <c r="J8">
-        <v>0.09645205773125425</v>
+        <v>9.6452057731254245E-2</v>
       </c>
       <c r="K8">
-        <v>0.03063465724568031</v>
+        <v>3.0634657245680309E-2</v>
       </c>
       <c r="L8">
-        <v>0.04476381026138813</v>
+        <v>4.4763810261388128E-2</v>
       </c>
       <c r="M8">
-        <v>0.05861953599116083</v>
+        <v>5.8619535991160827E-2</v>
       </c>
       <c r="N8">
-        <v>0.03946394253150359</v>
+        <v>3.9463942531503593E-2</v>
       </c>
       <c r="O8">
-        <v>0.0653646267076522</v>
+        <v>6.5364626707652196E-2</v>
       </c>
       <c r="P8">
-        <v>0.08182908133709522</v>
+        <v>8.1829081337095225E-2</v>
       </c>
       <c r="Q8">
-        <v>0.0487592292250458</v>
+        <v>4.8759229225045803E-2</v>
       </c>
       <c r="R8">
-        <v>0.06348827466801917</v>
+        <v>6.3488274668019165E-2</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>trans</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>rootmse</t>
-        </is>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>0.01740938009163542</v>
+        <v>1.740938009163542E-2</v>
       </c>
       <c r="D9">
-        <v>0.08722704147523937</v>
+        <v>8.7227041475239367E-2</v>
       </c>
       <c r="E9">
-        <v>0.06759565773717946</v>
+        <v>6.759565773717946E-2</v>
       </c>
       <c r="F9">
-        <v>0.1322648918224766</v>
+        <v>0.13226489182247661</v>
       </c>
       <c r="G9">
-        <v>0.08163170086405402</v>
+        <v>8.1631700864054024E-2</v>
       </c>
       <c r="H9">
-        <v>0.09806715688920746</v>
+        <v>9.806715688920746E-2</v>
       </c>
       <c r="I9">
-        <v>0.1364094175692296</v>
+        <v>0.13640941756922961</v>
       </c>
       <c r="J9">
-        <v>0.07662349908444456</v>
+        <v>7.662349908444456E-2</v>
       </c>
       <c r="K9">
-        <v>0.0683495137848688</v>
+        <v>6.8349513784868796E-2</v>
       </c>
       <c r="L9">
         <v>0.1383876261114359</v>
@@ -914,61 +941,57 @@
         <v>0.105508797789585</v>
       </c>
       <c r="N9">
-        <v>0.1650667803292528</v>
+        <v>0.16506678032925279</v>
       </c>
       <c r="O9">
-        <v>0.1393356268932708</v>
+        <v>0.13933562689327081</v>
       </c>
       <c r="P9">
-        <v>0.06425873623921832</v>
+        <v>6.4258736239218323E-2</v>
       </c>
       <c r="Q9">
-        <v>0.1587491552251991</v>
+        <v>0.15874915522519911</v>
       </c>
       <c r="R9">
-        <v>0.06120503580265936</v>
+        <v>6.120503580265936E-2</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>overall</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>rootmse</t>
-        </is>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>0.02781422044341587</v>
+        <v>2.7814220443415871E-2</v>
       </c>
       <c r="D10">
         <v>0.1019476200324036</v>
       </c>
       <c r="E10">
-        <v>0.08378027521630892</v>
+        <v>8.3780275216308916E-2</v>
       </c>
       <c r="F10">
-        <v>0.1476221511759644</v>
+        <v>0.14762215117596439</v>
       </c>
       <c r="G10">
-        <v>0.1001378863772173</v>
+        <v>0.10013788637721729</v>
       </c>
       <c r="H10">
-        <v>0.1187326553196277</v>
+        <v>0.11873265531962771</v>
       </c>
       <c r="I10">
         <v>0.1705065064401185</v>
       </c>
       <c r="J10">
-        <v>0.1282976678480705</v>
+        <v>0.12829766784807051</v>
       </c>
       <c r="K10">
-        <v>0.07343758680764256</v>
+        <v>7.3437586807642563E-2</v>
       </c>
       <c r="L10">
-        <v>0.136879098728527</v>
+        <v>0.13687909872852699</v>
       </c>
       <c r="M10">
         <v>0.1013647691387296</v>
@@ -977,19 +1000,51 @@
         <v>0.1549301461434765</v>
       </c>
       <c r="O10">
-        <v>0.1695317723500326</v>
+        <v>0.16953177235003261</v>
       </c>
       <c r="P10">
-        <v>0.07802845299918351</v>
+        <v>7.8028452999183512E-2</v>
       </c>
       <c r="Q10">
         <v>0.1659122176648834</v>
       </c>
       <c r="R10">
-        <v>0.07532831351251704</v>
+        <v>7.5328313512517037E-2</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:R4">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:R7">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:R10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/abc4sfa/4_error_measurements/data/output/simulations/exp/efficiency_metrics_abc_tun_exp_2025-04-23.xlsx
+++ b/abc4sfa/4_error_measurements/data/output/simulations/exp/efficiency_metrics_abc_tun_exp_2025-04-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanrengifo101/Documents/_OneDrive/_Publicaciones/_apolo/auto_apolo/abc4sfa/4_error_measurements/data/output/simulations/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA03E669-2AFE-A543-88F9-67F1F1D70238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C046097B-8C1C-BA4A-8200-D86303BE4F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1014,11 +1014,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:R4">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="formula" val="-MAX(ABS($C$2:$R$4))"/>
         <cfvo type="num" val="0"/>
-        <cfvo type="max"/>
+        <cfvo type="formula" val="MAX(ABS($C$2:$R$4))"/>
         <color rgb="FFFF0000"/>
         <color theme="0"/>
         <color rgb="FFFF0000"/>
@@ -1026,12 +1026,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:R7">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -1040,8 +1040,8 @@
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/abc4sfa/4_error_measurements/data/output/simulations/exp/efficiency_metrics_abc_tun_exp_2025-04-23.xlsx
+++ b/abc4sfa/4_error_measurements/data/output/simulations/exp/efficiency_metrics_abc_tun_exp_2025-04-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanrengifo101/Documents/_OneDrive/_Publicaciones/_apolo/auto_apolo/abc4sfa/4_error_measurements/data/output/simulations/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C046097B-8C1C-BA4A-8200-D86303BE4F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658F0E86-79D2-7448-96CD-8494ACD8A451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
